--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18047\Documents\Rebalance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carter Carlson\Documents\Crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D19458-1A30-4D06-BD76-40B09E74E173}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>trade_id</t>
   </si>
@@ -49,12 +50,15 @@
   </si>
   <si>
     <t>single_trade</t>
+  </si>
+  <si>
+    <t>sell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,8 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,26 +371,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,24 +422,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43325</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
